--- a/LOGS/c08ab5f6-9c14-4d0f-8f59-5e26dc427f76/main_page_service_output/notes_transformed_standard_cropped_df.xlsx
+++ b/LOGS/c08ab5f6-9c14-4d0f-8f59-5e26dc427f76/main_page_service_output/notes_transformed_standard_cropped_df.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="144">
   <si>
     <t>rows</t>
   </si>
@@ -272,6 +272,54 @@
     <t>3</t>
   </si>
   <si>
+    <t>(c) Current tax liability Current tax payable to ATO</t>
+  </si>
+  <si>
+    <t>Current tax In respect of the current year</t>
+  </si>
+  <si>
+    <t>Current tax In respect of the prior year</t>
+  </si>
+  <si>
+    <t>Deferred tax In respect of the current year</t>
+  </si>
+  <si>
+    <t>Deferred tax In respect of the prior year</t>
+  </si>
+  <si>
+    <t>Deferred tax Total tax expense relating to continuing operations</t>
+  </si>
+  <si>
+    <t>The prima facie income tax expense on pre-tax accounting profit reconciles to the income tax expense in the financial statements as follows: Profit from operations</t>
+  </si>
+  <si>
+    <t>The prima facie income tax expense on pre-tax accounting profit reconciles to the income tax expense in the financial statements as follows: Income tax expense calculated at 30%</t>
+  </si>
+  <si>
+    <t>The prima facie income tax expense on pre-tax accounting profit reconciles to the income tax expense in the financial statements as follows: Share of losses of associates accounted for using the equity method</t>
+  </si>
+  <si>
+    <t>The prima facie income tax expense on pre-tax accounting profit reconciles to the income tax expense in the financial statements as follows: Non deductible entertainment and other items</t>
+  </si>
+  <si>
+    <t>The prima facie income tax expense on pre-tax accounting profit reconciles to the income tax expense in the financial statements as follows: Non assessable disposal of investment</t>
+  </si>
+  <si>
+    <t>The prima facie income tax expense on pre-tax accounting profit reconciles to the income tax expense in the financial statements as follows: Over provision of prior year</t>
+  </si>
+  <si>
+    <t>The prima facie income tax expense on pre-tax accounting profit reconciles to the income tax expense in the financial statements as follows: Income tax relating to other adjustments</t>
+  </si>
+  <si>
+    <t>The prima facie income tax expense on pre-tax accounting profit reconciles to the income tax expense in the financial statements as follows: Total</t>
+  </si>
+  <si>
+    <t>Arising on gains/(losses) of hedging instruments in cash flow hedges transferred to the initial carrying amounts of hedged items Arising on gains/(losses) of hedging instruments in cash flow hedges transferred to the initial carrying amounts of hedged items</t>
+  </si>
+  <si>
+    <t>Arising on gains/(losses) of hedging instruments in cash flow hedges transferred to the initial carrying amounts of hedged items Total</t>
+  </si>
+  <si>
     <t>(c) Current tax liability Current tax payable to ATO nan nan</t>
   </si>
   <si>
@@ -341,31 +389,31 @@
     <t>18</t>
   </si>
   <si>
-    <t>Total Asset revaluation reserve</t>
-  </si>
-  <si>
-    <t>Total Hedging</t>
-  </si>
-  <si>
-    <t>Total 63263</t>
-  </si>
-  <si>
-    <t>Total Balance at the beginning of the financial year</t>
-  </si>
-  <si>
-    <t>Total financial asset, net of tax</t>
-  </si>
-  <si>
-    <t>Total revaluation reserve, net of tax</t>
-  </si>
-  <si>
-    <t>Total Balance at the end of the financial year</t>
-  </si>
-  <si>
-    <t>Total (185)</t>
-  </si>
-  <si>
-    <t>Total tax</t>
+    <t>None Asset revaluation reserve</t>
+  </si>
+  <si>
+    <t>None Hedging</t>
+  </si>
+  <si>
+    <t>None 63263</t>
+  </si>
+  <si>
+    <t>None Balance at the beginning of the financial year</t>
+  </si>
+  <si>
+    <t>None financial asset, net of tax</t>
+  </si>
+  <si>
+    <t>None revaluation reserve, net of tax</t>
+  </si>
+  <si>
+    <t>None Balance at the end of the financial year</t>
+  </si>
+  <si>
+    <t>None (185)</t>
+  </si>
+  <si>
+    <t>None tax</t>
   </si>
   <si>
     <t>19</t>
@@ -417,6 +465,15 @@
   </si>
   <si>
     <t>Other revenue Total</t>
+  </si>
+  <si>
+    <t>2(c) nan Borrowing cost</t>
+  </si>
+  <si>
+    <t>2(c) nan Interest paid for leasing liability</t>
+  </si>
+  <si>
+    <t>2(c) Total nan</t>
   </si>
 </sst>
 </file>
@@ -1872,24 +1929,508 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2">
+        <v>2023</v>
+      </c>
+      <c r="D2">
+        <v>-132226</v>
+      </c>
+      <c r="E2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3">
+        <v>2022</v>
+      </c>
+      <c r="D3">
+        <v>-326309</v>
+      </c>
+      <c r="E3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2">
+        <v>2023</v>
+      </c>
+      <c r="D2">
+        <v>41970</v>
+      </c>
+      <c r="E2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3">
+        <v>2023</v>
+      </c>
+      <c r="D3">
+        <v>-668</v>
+      </c>
+      <c r="E3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4">
+        <v>2023</v>
+      </c>
+      <c r="D4">
+        <v>10301</v>
+      </c>
+      <c r="E4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5">
+        <v>2023</v>
+      </c>
+      <c r="D5">
+        <v>1588</v>
+      </c>
+      <c r="E5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6">
+        <v>2023</v>
+      </c>
+      <c r="D6">
+        <v>53191</v>
+      </c>
+      <c r="E6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7">
+        <v>2023</v>
+      </c>
+      <c r="D7">
+        <v>935848</v>
+      </c>
+      <c r="E7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8">
+        <v>2023</v>
+      </c>
+      <c r="D8">
+        <v>280754</v>
+      </c>
+      <c r="E8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9">
+        <v>2023</v>
+      </c>
+      <c r="D9">
+        <v>-226393</v>
+      </c>
+      <c r="E9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10">
+        <v>2023</v>
+      </c>
+      <c r="D10">
+        <v>187</v>
+      </c>
+      <c r="E10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11">
+        <v>2023</v>
+      </c>
+      <c r="D11">
+        <v>-1308</v>
+      </c>
+      <c r="E11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12">
+        <v>2023</v>
+      </c>
+      <c r="D12">
+        <v>919</v>
+      </c>
+      <c r="E12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13">
+        <v>2023</v>
+      </c>
+      <c r="D13">
+        <v>-968</v>
+      </c>
+      <c r="E13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14">
+        <v>2023</v>
+      </c>
+      <c r="D14">
+        <v>53191</v>
+      </c>
+      <c r="E14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15">
+        <v>2023</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16">
+        <v>2023</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17">
+        <v>2022</v>
+      </c>
+      <c r="D17">
+        <v>1195</v>
+      </c>
+      <c r="E17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18">
+        <v>2022</v>
+      </c>
+      <c r="D18">
+        <v>5741</v>
+      </c>
+      <c r="E18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19">
+        <v>2022</v>
+      </c>
+      <c r="D19">
+        <v>4713</v>
+      </c>
+      <c r="E19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20">
+        <v>2022</v>
+      </c>
+      <c r="D20">
+        <v>-4122</v>
+      </c>
+      <c r="E20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21">
+        <v>2022</v>
+      </c>
+      <c r="D21">
+        <v>7527</v>
+      </c>
+      <c r="E21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22">
+        <v>2022</v>
+      </c>
+      <c r="D22">
+        <v>914909</v>
+      </c>
+      <c r="E22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23">
+        <v>2022</v>
+      </c>
+      <c r="D23">
+        <v>274473</v>
+      </c>
+      <c r="E23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24">
+        <v>2022</v>
+      </c>
+      <c r="D24">
+        <v>-268882</v>
+      </c>
+      <c r="E24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25">
+        <v>2022</v>
+      </c>
+      <c r="D25">
+        <v>253</v>
+      </c>
+      <c r="E25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26">
+        <v>2022</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27">
+        <v>2022</v>
+      </c>
+      <c r="D27">
+        <v>1619</v>
+      </c>
+      <c r="E27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28">
+        <v>2022</v>
+      </c>
+      <c r="D28">
+        <v>64</v>
+      </c>
+      <c r="E28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29">
+        <v>2022</v>
+      </c>
+      <c r="D29">
+        <v>7527</v>
+      </c>
+      <c r="E29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30">
+        <v>2022</v>
+      </c>
+      <c r="D30">
+        <v>293</v>
+      </c>
+      <c r="E30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31">
+        <v>2022</v>
+      </c>
+      <c r="D31">
+        <v>293</v>
+      </c>
+      <c r="E31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1921,7 +2462,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -2257,7 +2798,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="C26">
         <v>2022</v>
@@ -2623,7 +3164,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -2632,12 +3173,12 @@
         <v>22695</v>
       </c>
       <c r="E2" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -2646,12 +3187,12 @@
         <v>113559</v>
       </c>
       <c r="E3" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -2660,12 +3201,12 @@
         <v>27155</v>
       </c>
       <c r="E4" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -2674,12 +3215,12 @@
         <v>163409</v>
       </c>
       <c r="E5" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="C6">
         <v>2022</v>
@@ -2688,12 +3229,12 @@
         <v>53853</v>
       </c>
       <c r="E6" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="C7">
         <v>2022</v>
@@ -2702,12 +3243,12 @@
         <v>544671</v>
       </c>
       <c r="E7" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="C8">
         <v>2022</v>
@@ -2716,12 +3257,12 @@
         <v>107459</v>
       </c>
       <c r="E8" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="C9">
         <v>2022</v>
@@ -2730,7 +3271,7 @@
         <v>705983</v>
       </c>
       <c r="E9" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2765,7 +3306,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -2774,12 +3315,12 @@
         <v>5184850</v>
       </c>
       <c r="E2" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -2788,12 +3329,12 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="C4">
         <v>2022</v>
@@ -2802,12 +3343,12 @@
         <v>6443036</v>
       </c>
       <c r="E4" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="C5">
         <v>2022</v>
@@ -2816,7 +3357,7 @@
         <v>114943</v>
       </c>
       <c r="E5" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2851,7 +3392,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -2860,12 +3401,12 @@
         <v>17598</v>
       </c>
       <c r="E2" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="C3">
         <v>2022</v>
@@ -2874,7 +3415,7 @@
         <v>15259</v>
       </c>
       <c r="E3" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2909,7 +3450,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -2918,12 +3459,12 @@
         <v>1185</v>
       </c>
       <c r="E2" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="C3">
         <v>2022</v>
@@ -2932,7 +3473,7 @@
         <v>1387</v>
       </c>
       <c r="E3" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2967,7 +3508,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -2976,12 +3517,12 @@
         <v>125</v>
       </c>
       <c r="E2" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="C3">
         <v>2022</v>
@@ -2990,7 +3531,7 @@
         <v>331</v>
       </c>
       <c r="E3" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -3167,7 +3708,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -3176,12 +3717,12 @@
         <v>739</v>
       </c>
       <c r="E2" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="C3">
         <v>2022</v>
@@ -3190,7 +3731,7 @@
         <v>806</v>
       </c>
       <c r="E3" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -3237,10 +3778,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -3249,15 +3790,15 @@
         <v>10000000</v>
       </c>
       <c r="E2" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="C3">
         <v>2022</v>
@@ -3266,15 +3807,15 @@
         <v>10000000</v>
       </c>
       <c r="E3" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="B4" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -3283,15 +3824,15 @@
         <v>10000000</v>
       </c>
       <c r="E4" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="B5" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -3300,15 +3841,15 @@
         <v>20000000</v>
       </c>
       <c r="E5" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="C6">
         <v>2022</v>
@@ -3317,15 +3858,15 @@
         <v>20000000</v>
       </c>
       <c r="E6" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="B7" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="C7">
         <v>2023</v>
@@ -3334,7 +3875,7 @@
         <v>20000000</v>
       </c>
       <c r="E7" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -3381,7 +3922,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="C2">
         <v>2022</v>
@@ -3390,12 +3931,12 @@
         <v>67677</v>
       </c>
       <c r="E2" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="C3">
         <v>2022</v>
@@ -3404,12 +3945,12 @@
         <v>-4414</v>
       </c>
       <c r="E3" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="C4">
         <v>2022</v>
@@ -3418,12 +3959,12 @@
         <v>100647</v>
       </c>
       <c r="E4" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="C5">
         <v>2022</v>
@@ -3432,12 +3973,12 @@
         <v>104966</v>
       </c>
       <c r="E5" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="C6">
         <v>2022</v>
@@ -3446,12 +3987,12 @@
         <v>-253</v>
       </c>
       <c r="E6" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="C7">
         <v>2022</v>
@@ -3460,12 +4001,12 @@
         <v>-37036</v>
       </c>
       <c r="E7" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C8">
         <v>2022</v>
@@ -3474,12 +4015,12 @@
         <v>67677</v>
       </c>
       <c r="E8" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="C9">
         <v>2022</v>
@@ -3488,12 +4029,12 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="C10">
         <v>2022</v>
@@ -3502,12 +4043,12 @@
         <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="C11">
         <v>2022</v>
@@ -3516,12 +4057,12 @@
         <v>90</v>
       </c>
       <c r="E11" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C12">
         <v>2022</v>
@@ -3530,7 +4071,7 @@
         <v>-4414</v>
       </c>
       <c r="E12" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -3565,7 +4106,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -3574,12 +4115,12 @@
         <v>2882689</v>
       </c>
       <c r="E2" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -3588,12 +4129,12 @@
         <v>882657</v>
       </c>
       <c r="E3" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -3602,12 +4143,12 @@
         <v>-843000</v>
       </c>
       <c r="E4" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -3616,12 +4157,12 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="C6">
         <v>2023</v>
@@ -3630,12 +4171,12 @@
         <v>2922346</v>
       </c>
       <c r="E6" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="C7">
         <v>2022</v>
@@ -3644,12 +4185,12 @@
         <v>2732305</v>
       </c>
       <c r="E7" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="C8">
         <v>2022</v>
@@ -3658,12 +4199,12 @@
         <v>907382</v>
       </c>
       <c r="E8" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="C9">
         <v>2022</v>
@@ -3672,12 +4213,12 @@
         <v>-756000</v>
       </c>
       <c r="E9" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="C10">
         <v>2022</v>
@@ -3686,12 +4227,12 @@
         <v>-998</v>
       </c>
       <c r="E10" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="C11">
         <v>2022</v>
@@ -3700,7 +4241,7 @@
         <v>2882689</v>
       </c>
       <c r="E11" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -3735,7 +4276,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -3744,12 +4285,12 @@
         <v>191979</v>
       </c>
       <c r="E2" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -3758,12 +4299,12 @@
         <v>6529</v>
       </c>
       <c r="E3" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -3772,12 +4313,12 @@
         <v>198508</v>
       </c>
       <c r="E4" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="C5">
         <v>2022</v>
@@ -3786,12 +4327,12 @@
         <v>199304</v>
       </c>
       <c r="E5" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="C6">
         <v>2022</v>
@@ -3800,12 +4341,12 @@
         <v>22962</v>
       </c>
       <c r="E6" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="C7">
         <v>2022</v>
@@ -3814,7 +4355,7 @@
         <v>222266</v>
       </c>
       <c r="E7" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -3861,7 +4402,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -3870,12 +4411,12 @@
         <v>147275</v>
       </c>
       <c r="E2" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -3884,12 +4425,12 @@
         <v>9728</v>
       </c>
       <c r="E3" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -3898,12 +4439,12 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -3912,12 +4453,12 @@
         <v>129489</v>
       </c>
       <c r="E5" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="C6">
         <v>2023</v>
@@ -3926,12 +4467,12 @@
         <v>1164</v>
       </c>
       <c r="E6" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="C7">
         <v>2023</v>
@@ -3940,12 +4481,12 @@
         <v>287656</v>
       </c>
       <c r="E7" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="C8">
         <v>2022</v>
@@ -3954,12 +4495,12 @@
         <v>23006</v>
       </c>
       <c r="E8" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="C9">
         <v>2022</v>
@@ -3968,12 +4509,12 @@
         <v>11395</v>
       </c>
       <c r="E9" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="C10">
         <v>2022</v>
@@ -3982,12 +4523,12 @@
         <v>2339</v>
       </c>
       <c r="E10" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="C11">
         <v>2022</v>
@@ -3996,12 +4537,12 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="C12">
         <v>2022</v>
@@ -4010,12 +4551,12 @@
         <v>979</v>
       </c>
       <c r="E12" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="C13">
         <v>2022</v>
@@ -4024,7 +4565,7 @@
         <v>37719</v>
       </c>
       <c r="E13" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -4034,12 +4575,114 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2">
+        <v>2023</v>
+      </c>
+      <c r="D2">
+        <v>134989</v>
+      </c>
+      <c r="E2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3">
+        <v>2023</v>
+      </c>
+      <c r="D3">
+        <v>97</v>
+      </c>
+      <c r="E3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4">
+        <v>2023</v>
+      </c>
+      <c r="D4">
+        <v>135086</v>
+      </c>
+      <c r="E4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5">
+        <v>2022</v>
+      </c>
+      <c r="D5">
+        <v>22818</v>
+      </c>
+      <c r="E5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6">
+        <v>2022</v>
+      </c>
+      <c r="D6">
+        <v>139</v>
+      </c>
+      <c r="E6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7">
+        <v>2022</v>
+      </c>
+      <c r="D7">
+        <v>22957</v>
+      </c>
+      <c r="E7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
